--- a/BuySell.xlsx
+++ b/BuySell.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,475 +456,4531 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09.02.2024</t>
+          <t>28.09.2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17.02.2024</t>
+          <t>07.10.2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>StatTrak™ M4A1-S | Leaded Glass (Field-Tested)</t>
+          <t>Tec-9 | Titanium Bit (Field-Tested)</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>974</v>
+        <v>750</v>
       </c>
       <c r="E2" t="n">
-        <v>1073.5</v>
+        <v>760</v>
       </c>
       <c r="F2" t="n">
-        <v>99.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10.02.2024</t>
+          <t>29.09.2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18.02.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>StatTrak™ M4A4 | Cyber Security (Battle-Scarred)</t>
+          <t>XM1014 | Seasons (Minimal Wear)</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1750</v>
+        <v>123.87</v>
       </c>
       <c r="E3" t="n">
-        <v>1900</v>
+        <v>152</v>
       </c>
       <c r="F3" t="n">
-        <v>150</v>
+        <v>28.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10.02.2024</t>
+          <t>29.09.2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18.02.2024</t>
+          <t>25.10.2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>StatTrak™ AWP | Duality (Minimal Wear)</t>
+          <t>SSG 08 | Parallax (Field-Tested)</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1346</v>
+        <v>250</v>
       </c>
       <c r="E4" t="n">
-        <v>1425</v>
+        <v>218.5</v>
       </c>
       <c r="F4" t="n">
-        <v>79</v>
+        <v>-31.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10.02.2024</t>
+          <t>29.09.2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18.02.2024</t>
+          <t>07.10.2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AWP | Neo-Noir (Battle-Scarred)</t>
+          <t>Nova | Blaze Orange (Field-Tested)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1368.43</v>
+        <v>899.99</v>
       </c>
       <c r="E5" t="n">
-        <v>1852.5</v>
+        <v>902.5</v>
       </c>
       <c r="F5" t="n">
-        <v>484.07</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11.02.2024</t>
+          <t>29.09.2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>19.02.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>StatTrak™ AWP | Chromatic Aberration (Battle-Scarred)</t>
+          <t>P90 | Leather (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1526.41</v>
+        <v>540</v>
       </c>
       <c r="E6" t="n">
-        <v>1533.3</v>
+        <v>546</v>
       </c>
       <c r="F6" t="n">
-        <v>6.89</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11.02.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20.02.2024</t>
+          <t>16.10.2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Desert Eagle | Printstream (Well-Worn)</t>
+          <t>Sealed Graffiti | Popdog (Monster Purple)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2300</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
-        <v>2660</v>
+        <v>0.47</v>
       </c>
       <c r="F7" t="n">
-        <v>360</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11.02.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>19.02.2024</t>
+          <t>17.10.2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>StatTrak™ MP9 | Starlight Protector (Battle-Scarred)</t>
+          <t>Sealed Graffiti | Popdog (Monster Purple)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>513.41</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="n">
-        <v>589</v>
+        <v>0.47</v>
       </c>
       <c r="F8" t="n">
-        <v>75.59</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11.02.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>19.02.2024</t>
+          <t>18.10.2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>USP-S | Monster Mashup (Well-Worn)</t>
+          <t>Sealed Graffiti | Popdog (Monster Purple)</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1099</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="n">
-        <v>1301.5</v>
+        <v>0.47</v>
       </c>
       <c r="F9" t="n">
-        <v>202.5</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20.02.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>28.02.2024</t>
+          <t>18.10.2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AK-47 | Head Shot (Minimal Wear)</t>
+          <t>Sealed Graffiti | Popdog (Monster Purple)</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2589.65</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
-        <v>2802.5</v>
+        <v>0.47</v>
       </c>
       <c r="F10" t="n">
-        <v>212.85</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>23.02.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>02.03.2024</t>
+          <t>18.10.2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>M4A4 | Temukau (Well-Worn)</t>
+          <t>Sealed Graffiti | Popdog (Monster Purple)</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1300</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1518.1</v>
+        <v>0.47</v>
       </c>
       <c r="F11" t="n">
-        <v>218.1</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>23.02.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>05.03.2024</t>
+          <t>26.10.2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>StatTrak™ AK-47 | Redline (Well-Worn)</t>
+          <t>Sealed Graffiti | Popdog (Monster Purple)</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2750</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="n">
-        <v>2802.5</v>
+        <v>0.47</v>
       </c>
       <c r="F12" t="n">
-        <v>52.5</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>25.02.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>04.03.2024</t>
+          <t>26.10.2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Desert Eagle | Printstream (Battle-Scarred)</t>
+          <t>Sealed Graffiti | Popdog (Monster Purple)</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2400</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2536.5</v>
+        <v>0.47</v>
       </c>
       <c r="F13" t="n">
-        <v>136.5</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>25.02.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>04.03.2024</t>
+          <t>26.10.2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>P90 | Asiimov (Battle-Scarred)</t>
+          <t>Sealed Graffiti | Popdog (Monster Purple)</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>467.92</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="n">
-        <v>767.6</v>
+        <v>0.47</v>
       </c>
       <c r="F14" t="n">
-        <v>299.68</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25.02.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>04.03.2024</t>
+          <t>30.10.2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>StatTrak™ AWP | PAW (Field-Tested)</t>
+          <t>StatTrak™ UMP-45 | Arctic Wolf (Well-Worn)</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>475.83</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
-        <v>485.45</v>
+        <v>42.75</v>
       </c>
       <c r="F15" t="n">
-        <v>9.619999999999999</v>
+        <v>-7.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>26.02.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>05.03.2024</t>
+          <t>16.10.2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1st Lieutenant Farlow | SWAT</t>
+          <t>MP5-SD | Liquidation (Factory New)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>480</v>
+        <v>32.52</v>
       </c>
       <c r="E16" t="n">
-        <v>437</v>
+        <v>47.5</v>
       </c>
       <c r="F16" t="n">
-        <v>-43</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>27.02.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>06.03.2024</t>
+          <t>23.10.2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>StatTrak™ Desert Eagle | Mecha Industries (Field-Tested)</t>
+          <t>SSG 08 | Fever Dream (Field-Tested)</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>874</v>
+        <v>32.52</v>
       </c>
       <c r="E17" t="n">
-        <v>853.1</v>
+        <v>37.05</v>
       </c>
       <c r="F17" t="n">
-        <v>-20.9</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>27.02.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>06.03.2024</t>
+          <t>16.10.2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>M4A1-S | Cyrex (Field-Tested)</t>
+          <t>Anubis Collection Package</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1550</v>
+        <v>135.09</v>
       </c>
       <c r="E18" t="n">
-        <v>1567.5</v>
+        <v>161.5</v>
       </c>
       <c r="F18" t="n">
-        <v>17.5</v>
+        <v>26.41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>27.02.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>06.03.2024</t>
+          <t>16.10.2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>StatTrak™ AK-47 | Head Shot (Battle-Scarred)</t>
+          <t>CZ75-Auto | Polymer (Minimal Wear)</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1842.17</v>
+        <v>20.54</v>
       </c>
       <c r="E19" t="n">
-        <v>1966.5</v>
+        <v>21.85</v>
       </c>
       <c r="F19" t="n">
-        <v>124.33</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Итог: 2464.7299999999996</t>
+          <t>08.10.2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>19.10.2023</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Desert Eagle | Crimson Web (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>560</v>
+      </c>
+      <c r="E20" t="n">
+        <v>589</v>
+      </c>
+      <c r="F20" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>08.10.2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>16.10.2023</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>StatTrak™ Dual Berettas | Panther (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>178.93</v>
+      </c>
+      <c r="E21" t="n">
+        <v>209</v>
+      </c>
+      <c r="F21" t="n">
+        <v>30.07</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09.10.2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>05.11.2023</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>StatTrak™ PP-Bizon | Space Cat (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>40.88</v>
+      </c>
+      <c r="E22" t="n">
+        <v>31.35</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-9.529999999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>09.10.2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>19.10.2023</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>P250 | Vino Primo (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>160</v>
+      </c>
+      <c r="E23" t="n">
+        <v>177.65</v>
+      </c>
+      <c r="F23" t="n">
+        <v>17.65</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>09.10.2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>17.10.2023</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>StatTrak™ P90 | Virus (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>203.39</v>
+      </c>
+      <c r="E24" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>129.11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>09.10.2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>26.10.2023</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SSG 08 | Spring Twilly (Factory New)</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>94</v>
+      </c>
+      <c r="E25" t="n">
+        <v>95.95</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>09.10.2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>30.10.2023</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>StatTrak™ PP-Bizon | Space Cat (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="E26" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>09.10.2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>18.10.2023</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AWP | Exoskeleton (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>158</v>
+      </c>
+      <c r="E27" t="n">
+        <v>190</v>
+      </c>
+      <c r="F27" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>09.10.2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>21.10.2023</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>StatTrak™ AWP | PAW (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>396</v>
+      </c>
+      <c r="E28" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>09.10.2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>25.10.2023</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>G3SG1 | Ancient Ritual (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>273.45</v>
+      </c>
+      <c r="E29" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>09.10.2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>18.10.2023</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Desert Eagle | Blue Ply (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="E30" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>09.10.2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>18.10.2023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AWP | Exoskeleton (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>156</v>
+      </c>
+      <c r="E31" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>09.10.2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>19.10.2023</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Canals Pin</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>181.41</v>
+      </c>
+      <c r="E32" t="n">
+        <v>190</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>09.10.2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>17.10.2023</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Dual Berettas | Panther (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>139.15</v>
+      </c>
+      <c r="E33" t="n">
+        <v>190</v>
+      </c>
+      <c r="F33" t="n">
+        <v>50.85</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>09.10.2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>20.10.2023</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>P250 | Vino Primo (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>161</v>
+      </c>
+      <c r="E34" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09.10.2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>01.11.2023</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Desert Eagle | Bronze Deco (Factory New)</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>122.14</v>
+      </c>
+      <c r="E35" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-44.24</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>09.10.2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>19.10.2023</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SSG 08 | Mayan Dreams (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>356.84</v>
+      </c>
+      <c r="E36" t="n">
+        <v>380</v>
+      </c>
+      <c r="F36" t="n">
+        <v>23.16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>10.10.2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>04.11.2023</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>UMP-45 | Plastique (Factory New)</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>146.13</v>
+      </c>
+      <c r="E37" t="n">
+        <v>114</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-32.13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>10.10.2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>18.10.2023</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MP7 | Nemesis (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>470</v>
+      </c>
+      <c r="E38" t="n">
+        <v>513</v>
+      </c>
+      <c r="F38" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>11.10.2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>06.11.2023</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Fracture Case</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>52</v>
+      </c>
+      <c r="E39" t="n">
+        <v>41.44</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-10.56</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>23.10.2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>04.11.2023</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>M4A1-S | Emphorosaur-S (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>71</v>
+      </c>
+      <c r="E40" t="n">
+        <v>59.85</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-11.15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>23.10.2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>05.11.2023</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>StatTrak™ Music Kit | bbno$, u mad!</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>489.05</v>
+      </c>
+      <c r="E41" t="n">
+        <v>427.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-61.55</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>23.10.2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>02.11.2023</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>StatTrak™ MAC-10 | Toybox (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>500</v>
+      </c>
+      <c r="E42" t="n">
+        <v>503.5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>23.10.2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>31.10.2023</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Galil AR | Vandal (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>23</v>
+      </c>
+      <c r="E43" t="n">
+        <v>38</v>
+      </c>
+      <c r="F43" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>23.10.2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>05.11.2023</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>AUG | Chameleon (Factory New)</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>509</v>
+      </c>
+      <c r="E44" t="n">
+        <v>410.4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-98.59999999999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>23.10.2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>31.10.2023</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>StatTrak™ AK-47 | Ice Coaled (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1260.16</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1330</v>
+      </c>
+      <c r="F45" t="n">
+        <v>69.84</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>23.10.2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>04.11.2023</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Aces High Pin</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>557.89</v>
+      </c>
+      <c r="E46" t="n">
+        <v>517.75</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-40.14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>24.10.2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>01.11.2023</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>USP-S | Cortex (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>135</v>
+      </c>
+      <c r="E47" t="n">
+        <v>171</v>
+      </c>
+      <c r="F47" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>24.10.2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>01.11.2023</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Dual Berettas | Twin Turbo (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>160</v>
+      </c>
+      <c r="E48" t="n">
+        <v>175.75</v>
+      </c>
+      <c r="F48" t="n">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>06.11.2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>StatTrak™ Five-SeveN | Fairy Tale (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1520</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>07.11.2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>15.11.2023</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>AWP | Hyper Beast (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1741.61</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1757.5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>15.89</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>08.11.2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>23.11.2023</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PP-Bizon | Carbon Fiber (Factory New)</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1047.52</v>
+      </c>
+      <c r="E51" t="n">
+        <v>760</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-287.52</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18.11.2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>26.11.2023</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SSG 08 | Death's Head (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>509</v>
+      </c>
+      <c r="E52" t="n">
+        <v>627</v>
+      </c>
+      <c r="F52" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>18.11.2023</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>26.11.2023</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>AWP | Duality (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>434</v>
+      </c>
+      <c r="E53" t="n">
+        <v>513</v>
+      </c>
+      <c r="F53" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>18.11.2023</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>26.11.2023</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>M4A1-S | Decimator (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>844</v>
+      </c>
+      <c r="E54" t="n">
+        <v>779</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>AK-47 | Head Shot (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>650</v>
+      </c>
+      <c r="E55" t="n">
+        <v>769.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>22.11.2023</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>30.11.2023</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>AK-47 | Nightwish (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>570</v>
+      </c>
+      <c r="E56" t="n">
+        <v>665</v>
+      </c>
+      <c r="F56" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>23.11.2023</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>01.12.2023</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>USP-S | Neo-Noir (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>861.77</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1092.5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>230.73</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>26.11.2023</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>04.12.2023</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sergeant Bombson | SWAT</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>300</v>
+      </c>
+      <c r="E58" t="n">
+        <v>427.5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>26.11.2023</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>04.12.2023</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>800</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1111.5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>311.5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>26.11.2023</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>04.12.2023</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>AK-47 | Legion of Anubis (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>670</v>
+      </c>
+      <c r="E60" t="n">
+        <v>612.75</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-57.25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>28.11.2023</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>06.12.2023</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>M4A4 | The Emperor (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>885.86</v>
+      </c>
+      <c r="E61" t="n">
+        <v>969</v>
+      </c>
+      <c r="F61" t="n">
+        <v>83.14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>29.11.2023</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>07.12.2023</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>P250 | Mehndi (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>650</v>
+      </c>
+      <c r="E62" t="n">
+        <v>712.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>30.11.2023</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>StatTrak™ USP-S | Blueprint (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>655</v>
+      </c>
+      <c r="E63" t="n">
+        <v>731.5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>01.12.2023</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>StatTrak™ CZ75-Auto | Yellow Jacket (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>555.27</v>
+      </c>
+      <c r="E64" t="n">
+        <v>598.5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>43.23</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>02.12.2023</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>M4A4 | Royal Paladin (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>739.3200000000001</v>
+      </c>
+      <c r="E65" t="n">
+        <v>703</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-36.32</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>06.12.2023</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>14.12.2023</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>StatTrak™ MP7 | Ocean Foam (Factory New)</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>600</v>
+      </c>
+      <c r="E66" t="n">
+        <v>665</v>
+      </c>
+      <c r="F66" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>06.12.2023</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>14.12.2023</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CZ75-Auto | Tread Plate (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>402.79</v>
+      </c>
+      <c r="E67" t="n">
+        <v>458.85</v>
+      </c>
+      <c r="F67" t="n">
+        <v>56.06</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>07.12.2023</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>15.12.2023</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SG 553 | Integrale (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>829.4400000000001</v>
+      </c>
+      <c r="E68" t="n">
+        <v>779</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-50.44</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>07.12.2023</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>15.12.2023</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Dual Berettas | Marina (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>464.41</v>
+      </c>
+      <c r="E69" t="n">
+        <v>418</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-46.41</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>07.12.2023</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>15.12.2023</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>StatTrak™ AWP | Duality (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>880</v>
+      </c>
+      <c r="E70" t="n">
+        <v>798</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-82</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>07.12.2023</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>15.12.2023</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>USP-S | Purple DDPAT (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>828</v>
+      </c>
+      <c r="E71" t="n">
+        <v>950</v>
+      </c>
+      <c r="F71" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>16.12.2023</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>StatTrak™ P250 | See Ya Later (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>552.97</v>
+      </c>
+      <c r="E72" t="n">
+        <v>579.5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>P250 | Red Rock (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>405</v>
+      </c>
+      <c r="E73" t="n">
+        <v>389.5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-15.5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>19.12.2023</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>StatTrak™ FAMAS | Pulse (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>892.15</v>
+      </c>
+      <c r="E74" t="n">
+        <v>845.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-46.65</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>15.12.2023</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>23.12.2023</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>StatTrak™ Desert Eagle | Mecha Industries (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>580</v>
+      </c>
+      <c r="E75" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>15.12.2023</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>23.12.2023</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>M4A1-S | Decimator (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>725</v>
+      </c>
+      <c r="E76" t="n">
+        <v>783.75</v>
+      </c>
+      <c r="F76" t="n">
+        <v>58.75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>26.12.2023</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>StatTrak™ Desert Eagle | Mecha Industries (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>857</v>
+      </c>
+      <c r="E77" t="n">
+        <v>807.5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-49.5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>25.12.2023</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>AK-47 | Frontside Misty (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>800</v>
+      </c>
+      <c r="E78" t="n">
+        <v>745.75</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-54.25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>26.12.2023</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>StatTrak™ USP-S | Cortex (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>683.9</v>
+      </c>
+      <c r="E79" t="n">
+        <v>674.5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-9.4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>25.12.2023</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>FAMAS | Pulse (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>540</v>
+      </c>
+      <c r="E80" t="n">
+        <v>473.9</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-66.09999999999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>26.12.2023</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>SCAR-20 | Cardiac (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>441.97</v>
+      </c>
+      <c r="E81" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-156.07</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>26.12.2023</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>AK-47 | Nightwish (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>430</v>
+      </c>
+      <c r="E82" t="n">
+        <v>469.3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>39.3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>23.12.2023</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>31.12.2023</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>StatTrak™ AUG | Chameleon (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>864.72</v>
+      </c>
+      <c r="E83" t="n">
+        <v>950</v>
+      </c>
+      <c r="F83" t="n">
+        <v>85.28</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>23.12.2023</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>31.12.2023</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>M4A1-S | Control Panel (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>475</v>
+      </c>
+      <c r="E84" t="n">
+        <v>541.5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>04.01.2024</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>StatTrak™ MP5-SD | Phosphor (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>540</v>
+      </c>
+      <c r="E85" t="n">
+        <v>513</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>28.12.2023</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>05.01.2024</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>StatTrak™ UMP-45 | Momentum (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>550</v>
+      </c>
+      <c r="E86" t="n">
+        <v>541.5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>28.12.2023</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>05.01.2024</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>P250 | Red Rock (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>416</v>
+      </c>
+      <c r="E87" t="n">
+        <v>475</v>
+      </c>
+      <c r="F87" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>28.12.2023</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>05.01.2024</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>StatTrak™ Tec-9 | Fuel Injector (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>434.75</v>
+      </c>
+      <c r="E88" t="n">
+        <v>513</v>
+      </c>
+      <c r="F88" t="n">
+        <v>78.25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>28.12.2023</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>05.01.2024</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>StatTrak™ SSG 08 | Turbo Peek (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>739.65</v>
+      </c>
+      <c r="E89" t="n">
+        <v>764.75</v>
+      </c>
+      <c r="F89" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>28.12.2023</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>05.01.2024</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Glock-18 | Nuclear Garden (Factory New)</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>690.4</v>
+      </c>
+      <c r="E90" t="n">
+        <v>722</v>
+      </c>
+      <c r="F90" t="n">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>28.12.2023</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>05.01.2024</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>StatTrak™ SSG 08 | Turbo Peek (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>755</v>
+      </c>
+      <c r="E91" t="n">
+        <v>769.5</v>
+      </c>
+      <c r="F91" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>30.12.2023</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>07.01.2024</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Glock-18 | Water Elemental (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>470.35</v>
+      </c>
+      <c r="E92" t="n">
+        <v>589</v>
+      </c>
+      <c r="F92" t="n">
+        <v>118.65</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>30.12.2023</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>07.01.2024</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Glock-18 | Bullet Queen (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>437</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-147.2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>31.12.2023</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>08.01.2024</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Glock-18 | Water Elemental (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>471.94</v>
+      </c>
+      <c r="E94" t="n">
+        <v>579.5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>107.56</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>31.12.2023</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>08.01.2024</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>M4A1-S | Leaded Glass (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>458</v>
+      </c>
+      <c r="E95" t="n">
+        <v>484.5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>31.12.2023</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>08.01.2024</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A1-S | Briefing (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>662</v>
+      </c>
+      <c r="E96" t="n">
+        <v>760</v>
+      </c>
+      <c r="F96" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>31.12.2023</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>08.01.2024</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>M4A4 | Desolate Space (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>399.45</v>
+      </c>
+      <c r="E97" t="n">
+        <v>418</v>
+      </c>
+      <c r="F97" t="n">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>R8 Revolver | Fade (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>538.77</v>
+      </c>
+      <c r="E98" t="n">
+        <v>555.75</v>
+      </c>
+      <c r="F98" t="n">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>StatTrak™ FAMAS | Roll Cage (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>535</v>
+      </c>
+      <c r="E99" t="n">
+        <v>484.5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-50.5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>M4A1-S | Leaded Glass (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>427</v>
+      </c>
+      <c r="E100" t="n">
+        <v>365.75</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-61.25</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Glock-18 | Wasteland Rebel (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>497.87</v>
+      </c>
+      <c r="E101" t="n">
+        <v>380</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-117.87</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CZ75-Auto | Victoria (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>390</v>
+      </c>
+      <c r="E102" t="n">
+        <v>323</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>AK-47 | Legion of Anubis (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>647.47</v>
+      </c>
+      <c r="E103" t="n">
+        <v>513</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-134.47</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>AK-47 | Safety Net (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>400.18</v>
+      </c>
+      <c r="E104" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-105.68</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>04.01.2024</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>12.01.2024</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>M4A4 | Buzz Kill (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>530</v>
+      </c>
+      <c r="E105" t="n">
+        <v>574.38</v>
+      </c>
+      <c r="F105" t="n">
+        <v>44.38</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>07.01.2024</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>15.01.2024</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Desert Eagle | Code Red (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1000.78</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1192.25</v>
+      </c>
+      <c r="F106" t="n">
+        <v>191.47</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>07.01.2024</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>17.01.2024</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A4 | Tooth Fairy (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>393.84</v>
+      </c>
+      <c r="E107" t="n">
+        <v>342</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-51.84</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>07.01.2024</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>19.01.2024</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1147</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1130.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-16.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>08.01.2024</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>17.01.2024</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>StatTrak™ MAC-10 | Heat (Factory New)</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1092.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>08.01.2024</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>16.01.2024</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>AK-47 | Frontside Misty (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>570</v>
+      </c>
+      <c r="E110" t="n">
+        <v>644.1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>M4A4 | Temukau (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>570</v>
+      </c>
+      <c r="E111" t="n">
+        <v>757.15</v>
+      </c>
+      <c r="F111" t="n">
+        <v>187.15</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>17.01.2024</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>M4A4 | Bullet Rain (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1268.48</v>
+      </c>
+      <c r="F112" t="n">
+        <v>168.48</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>StatTrak™ SG 553 | Cyrex (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>570</v>
+      </c>
+      <c r="E113" t="n">
+        <v>589</v>
+      </c>
+      <c r="F113" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>10.01.2024</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A1-S | Leaded Glass (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>785</v>
+      </c>
+      <c r="E114" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>212.5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>10.01.2024</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>StatTrak™ AK-47 | Nightwish (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1080</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1164.7</v>
+      </c>
+      <c r="F115" t="n">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>12.01.2024</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>21.01.2024</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>StatTrak™ AUG | Bengal Tiger (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>934.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>940.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>13.01.2024</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>21.01.2024</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>StatTrak™ Glock-18 | Water Elemental (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>740</v>
+      </c>
+      <c r="E117" t="n">
+        <v>902.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>13.01.2024</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>22.01.2024</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>StatTrak™ P250 | Asiimov (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>360.77</v>
+      </c>
+      <c r="E118" t="n">
+        <v>441.75</v>
+      </c>
+      <c r="F118" t="n">
+        <v>80.98</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>15.01.2024</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>23.01.2024</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>StatTrak™ PP-Bizon | High Roller (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>384.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>427.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>16.01.2024</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>24.01.2024</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A1-S | Leaded Glass (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>911.24</v>
+      </c>
+      <c r="E120" t="n">
+        <v>931.95</v>
+      </c>
+      <c r="F120" t="n">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>26.01.2024</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>StatTrak™ AUG | Chameleon (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>818.91</v>
+      </c>
+      <c r="E121" t="n">
+        <v>788.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-30.41</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>26.01.2024</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A1-S | Leaded Glass (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>941.22</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1011.75</v>
+      </c>
+      <c r="F122" t="n">
+        <v>70.53</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>26.01.2024</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A4 | Evil Daimyo (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>398.83</v>
+      </c>
+      <c r="E123" t="n">
+        <v>560.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>161.67</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>26.01.2024</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Five-SeveN | Hyper Beast (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>1995.04</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2517.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>522.46</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>26.01.2024</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>AK-47 | Blue Laminate (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>800</v>
+      </c>
+      <c r="E125" t="n">
+        <v>707.75</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-92.25</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>26.01.2024</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>StatTrak™ AWP | Exoskeleton (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>470.06</v>
+      </c>
+      <c r="E126" t="n">
+        <v>403.75</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-66.31</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>26.01.2024</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>StatTrak™ AWP | Exoskeleton (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>447.99</v>
+      </c>
+      <c r="E127" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-41.39</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>26.01.2024</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>StatTrak™ SCAR-20 | Cardiac (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>777.59</v>
+      </c>
+      <c r="E128" t="n">
+        <v>712.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-65.09</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>19.01.2024</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>27.01.2024</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>PP-Bizon | Rust Coat (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>709.75</v>
+      </c>
+      <c r="E129" t="n">
+        <v>760</v>
+      </c>
+      <c r="F129" t="n">
+        <v>50.25</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>19.01.2024</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>28.01.2024</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>StatTrak™ AUG | Torque (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>700</v>
+      </c>
+      <c r="E130" t="n">
+        <v>722</v>
+      </c>
+      <c r="F130" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>21.01.2024</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>29.01.2024</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>AK-47 | Cartel (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>500</v>
+      </c>
+      <c r="E131" t="n">
+        <v>522.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>23.01.2024</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>31.01.2024</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A4 | Evil Daimyo (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>397.95</v>
+      </c>
+      <c r="E132" t="n">
+        <v>532</v>
+      </c>
+      <c r="F132" t="n">
+        <v>134.05</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>27.01.2024</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>07.02.2024</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A4 | The Battlestar (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1865.05</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1795.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-69.55</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>28.01.2024</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>05.02.2024</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Five-SeveN | Hyper Beast (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>1964</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2470</v>
+      </c>
+      <c r="F134" t="n">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>29.01.2024</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>06.02.2024</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>StatTrak™ P250 | Asiimov (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>600</v>
+      </c>
+      <c r="E135" t="n">
+        <v>665</v>
+      </c>
+      <c r="F135" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>30.01.2024</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>07.02.2024</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>M4A4 | Temukau (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1225.81</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1306.25</v>
+      </c>
+      <c r="F136" t="n">
+        <v>80.44</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>30.01.2024</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>07.02.2024</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>M4A4 | 龍王 (Dragon King) (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>873.78</v>
+      </c>
+      <c r="E137" t="n">
+        <v>940.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>66.72</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>30.01.2024</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>07.02.2024</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A4 | Temukau (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>2540.06</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2724.6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>184.54</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>30.01.2024</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>07.02.2024</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>AK-47 | Aquamarine Revenge (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>1157.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1225.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>30.01.2024</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>07.02.2024</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>M4A1-S | Basilisk (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>400</v>
+      </c>
+      <c r="E140" t="n">
+        <v>427.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>31.01.2024</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>08.02.2024</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>AK-47 | Nightwish (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>421.01</v>
+      </c>
+      <c r="E141" t="n">
+        <v>443.65</v>
+      </c>
+      <c r="F141" t="n">
+        <v>22.64</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>31.01.2024</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>09.02.2024</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>M4A4 | Desolate Space (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>583.33</v>
+      </c>
+      <c r="E142" t="n">
+        <v>693.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>110.17</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>09.02.2024</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>17.02.2024</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A1-S | Leaded Glass (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>974</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1073.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>10.02.2024</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>18.02.2024</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A4 | Cyber Security (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1750</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F144" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>10.02.2024</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>18.02.2024</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>StatTrak™ AWP | Duality (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>1346</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1425</v>
+      </c>
+      <c r="F145" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>10.02.2024</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>18.02.2024</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>AWP | Neo-Noir (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>1368.43</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1852.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>484.07</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>11.02.2024</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>19.02.2024</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>StatTrak™ AWP | Chromatic Aberration (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>1526.41</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1533.3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>11.02.2024</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>20.02.2024</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Desert Eagle | Printstream (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>2300</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2660</v>
+      </c>
+      <c r="F148" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>11.02.2024</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>20.02.2024</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>StatTrak™ AWP | Chromatic Aberration (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>1550</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1533</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>11.02.2024</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>19.02.2024</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>StatTrak™ MP9 | Starlight Protector (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>513.41</v>
+      </c>
+      <c r="E150" t="n">
+        <v>589</v>
+      </c>
+      <c r="F150" t="n">
+        <v>75.59</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>11.02.2024</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>19.02.2024</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>USP-S | Monster Mashup (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>1099</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1301.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>202.5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>20.02.2024</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>28.02.2024</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>AK-47 | Head Shot (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>2589.65</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2802.5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>212.85</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>23.02.2024</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>02.03.2024</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>M4A4 | Temukau (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1518.1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>218.1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>23.02.2024</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>05.03.2024</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>StatTrak™ AK-47 | Redline (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>2750</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2802.5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>04.03.2024</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Desert Eagle | Printstream (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2536.5</v>
+      </c>
+      <c r="F155" t="n">
+        <v>136.5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>04.03.2024</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>P90 | Asiimov (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>467.92</v>
+      </c>
+      <c r="E156" t="n">
+        <v>767.6</v>
+      </c>
+      <c r="F156" t="n">
+        <v>299.68</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>04.03.2024</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>StatTrak™ AWP | PAW (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>475.83</v>
+      </c>
+      <c r="E157" t="n">
+        <v>485.45</v>
+      </c>
+      <c r="F157" t="n">
+        <v>9.619999999999999</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>26.02.2024</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>05.03.2024</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1st Lieutenant Farlow | SWAT</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>480</v>
+      </c>
+      <c r="E158" t="n">
+        <v>437</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>06.03.2024</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>StatTrak™ Desert Eagle | Mecha Industries (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>874</v>
+      </c>
+      <c r="E159" t="n">
+        <v>853.1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-20.9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>06.03.2024</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>M4A1-S | Cyrex (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>1550</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1567.5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>06.03.2024</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>StatTrak™ AK-47 | Head Shot (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1842.17</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1966.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>124.33</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>01.03.2024</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>09.03.2024</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>USP-S | Monster Mashup (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1444</v>
+      </c>
+      <c r="F162" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>01.03.2024</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>09.03.2024</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>AK-47 | Cartel (Factory New)</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>1860</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F163" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>03.03.2024</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>11.03.2024</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>AK-47 | Green Laminate (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>1102.43</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1472.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>370.07</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>05.03.2024</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>13.03.2024</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>AK-47 | Neon Revolution (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F165" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>06.03.2024</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>14.03.2024</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>M4A1-S | Black Lotus (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F166" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>06.03.2024</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>14.03.2024</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>MAC-10 | Neon Rider (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>669.76</v>
+      </c>
+      <c r="E167" t="n">
+        <v>513</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-156.76</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>06.03.2024</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>14.03.2024</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>M4A1-S | Moss Quartz (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>1994.59</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2042.5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>47.91</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>07.03.2024</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>15.03.2024</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>M4A1-S | Mecha Industries (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1567.5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>07.03.2024</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>15.03.2024</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>UMP-45 | Blaze (Factory New)</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>1588</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1520</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>07.03.2024</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>15.03.2024</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>USP-S | Jawbreaker (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>1064.76</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1073.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>08.03.2024</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>16.03.2024</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A4 | Temukau (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>2100</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>08.03.2024</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>16.03.2024</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>M4A1-S | Black Lotus (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>2390</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2775.9</v>
+      </c>
+      <c r="F173" t="n">
+        <v>385.9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>08.03.2024</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>16.03.2024</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>StatTrak™ Glock-18 | Snack Attack (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>650</v>
+      </c>
+      <c r="E174" t="n">
+        <v>717.25</v>
+      </c>
+      <c r="F174" t="n">
+        <v>67.25</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>08.03.2024</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>16.03.2024</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Desert Eagle | Night (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>895</v>
+      </c>
+      <c r="E175" t="n">
+        <v>778.05</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-116.95</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Итог: 7571.68</t>
         </is>
       </c>
     </row>

--- a/BuySell.xlsx
+++ b/BuySell.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,2503 +456,5441 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01.01.2024</t>
+          <t>27.09.2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>09.01.2024</t>
+          <t>07.10.2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R8 Revolver | Fade (Minimal Wear)</t>
+          <t>SSG 08 | Detour (Field-Tested)</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>538.77</v>
+        <v>850</v>
       </c>
       <c r="E2" t="n">
-        <v>555.75</v>
+        <v>864.5</v>
       </c>
       <c r="F2" t="n">
-        <v>16.98</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01.01.2024</t>
+          <t>27.09.2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>09.01.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>StatTrak™ FAMAS | Roll Cage (Field-Tested)</t>
+          <t>StatTrak™ Dual Berettas | Panther (Factory New)</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>535</v>
+        <v>745.6799999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>484.5</v>
+        <v>788.5</v>
       </c>
       <c r="F3" t="n">
-        <v>-50.5</v>
+        <v>42.82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01.01.2024</t>
+          <t>27.09.2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09.01.2024</t>
+          <t>03.11.2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>M4A1-S | Leaded Glass (Well-Worn)</t>
+          <t>StatTrak™ Galil AR | Rocket Pop (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>427</v>
+        <v>80.55</v>
       </c>
       <c r="E4" t="n">
-        <v>365.75</v>
+        <v>55.1</v>
       </c>
       <c r="F4" t="n">
-        <v>-61.25</v>
+        <v>-25.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01.01.2024</t>
+          <t>28.09.2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>09.01.2024</t>
+          <t>07.10.2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Glock-18 | Wasteland Rebel (Well-Worn)</t>
+          <t>Tec-9 | Titanium Bit (Field-Tested)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>497.87</v>
+        <v>750</v>
       </c>
       <c r="E5" t="n">
-        <v>380</v>
+        <v>760</v>
       </c>
       <c r="F5" t="n">
-        <v>-117.87</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01.01.2024</t>
+          <t>29.09.2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>09.01.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CZ75-Auto | Victoria (Field-Tested)</t>
+          <t>XM1014 | Seasons (Minimal Wear)</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>390</v>
+        <v>123.87</v>
       </c>
       <c r="E6" t="n">
-        <v>323</v>
+        <v>152</v>
       </c>
       <c r="F6" t="n">
-        <v>-67</v>
+        <v>28.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01.01.2024</t>
+          <t>29.09.2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09.01.2024</t>
+          <t>25.10.2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AK-47 | Legion of Anubis (Well-Worn)</t>
+          <t>SSG 08 | Parallax (Field-Tested)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>647.47</v>
+        <v>250</v>
       </c>
       <c r="E7" t="n">
-        <v>513</v>
+        <v>218.5</v>
       </c>
       <c r="F7" t="n">
-        <v>-134.47</v>
+        <v>-31.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01.01.2024</t>
+          <t>29.09.2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>09.01.2024</t>
+          <t>07.10.2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AK-47 | Safety Net (Well-Worn)</t>
+          <t>Nova | Blaze Orange (Field-Tested)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>400.18</v>
+        <v>899.99</v>
       </c>
       <c r="E8" t="n">
-        <v>294.5</v>
+        <v>902.5</v>
       </c>
       <c r="F8" t="n">
-        <v>-105.68</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04.01.2024</t>
+          <t>29.09.2023</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12.01.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>M4A4 | Buzz Kill (Battle-Scarred)</t>
+          <t>P90 | Leather (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="E9" t="n">
-        <v>574.38</v>
+        <v>546</v>
       </c>
       <c r="F9" t="n">
-        <v>44.38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>07.01.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15.01.2024</t>
+          <t>16.10.2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Desert Eagle | Code Red (Battle-Scarred)</t>
+          <t>Sealed Graffiti | Popdog (Monster Purple)</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1000.78</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1192.25</v>
+        <v>0.47</v>
       </c>
       <c r="F10" t="n">
-        <v>191.47</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>07.01.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>17.01.2024</t>
+          <t>17.10.2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>StatTrak™ M4A4 | Tooth Fairy (Field-Tested)</t>
+          <t>Sealed Graffiti | Popdog (Monster Purple)</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>393.84</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="n">
-        <v>342</v>
+        <v>0.47</v>
       </c>
       <c r="F11" t="n">
-        <v>-51.84</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>07.01.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19.01.2024</t>
+          <t>18.10.2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AK-47 | Redline (Field-Tested)</t>
+          <t>Sealed Graffiti | Popdog (Monster Purple)</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1147</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="n">
-        <v>1130.5</v>
+        <v>0.47</v>
       </c>
       <c r="F12" t="n">
-        <v>-16.5</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08.01.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>17.01.2024</t>
+          <t>18.10.2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>StatTrak™ MAC-10 | Heat (Factory New)</t>
+          <t>Sealed Graffiti | Popdog (Monster Purple)</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1050</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1092.5</v>
+        <v>0.47</v>
       </c>
       <c r="F13" t="n">
-        <v>42.5</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>08.01.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16.01.2024</t>
+          <t>18.10.2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AK-47 | Frontside Misty (Battle-Scarred)</t>
+          <t>Sealed Graffiti | Popdog (Monster Purple)</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>570</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="n">
-        <v>644.1</v>
+        <v>0.47</v>
       </c>
       <c r="F14" t="n">
-        <v>74.09999999999999</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>09.01.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>18.01.2024</t>
+          <t>26.10.2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>M4A4 | Temukau (Battle-Scarred)</t>
+          <t>Sealed Graffiti | Popdog (Monster Purple)</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>570</v>
+        <v>0.5</v>
       </c>
       <c r="E15" t="n">
-        <v>757.15</v>
+        <v>0.47</v>
       </c>
       <c r="F15" t="n">
-        <v>187.15</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>09.01.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>17.01.2024</t>
+          <t>26.10.2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>M4A4 | Bullet Rain (Minimal Wear)</t>
+          <t>Sealed Graffiti | Popdog (Monster Purple)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1100</v>
+        <v>0.5</v>
       </c>
       <c r="E16" t="n">
-        <v>1268.48</v>
+        <v>0.47</v>
       </c>
       <c r="F16" t="n">
-        <v>168.48</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>09.01.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>18.01.2024</t>
+          <t>26.10.2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>StatTrak™ SG 553 | Cyrex (Battle-Scarred)</t>
+          <t>Sealed Graffiti | Popdog (Monster Purple)</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>570</v>
+        <v>0.5</v>
       </c>
       <c r="E17" t="n">
-        <v>589</v>
+        <v>0.47</v>
       </c>
       <c r="F17" t="n">
-        <v>19</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10.01.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>18.01.2024</t>
+          <t>30.10.2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>StatTrak™ M4A1-S | Leaded Glass (Field-Tested)</t>
+          <t>StatTrak™ UMP-45 | Arctic Wolf (Well-Worn)</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>785</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
-        <v>997.5</v>
+        <v>42.75</v>
       </c>
       <c r="F18" t="n">
-        <v>212.5</v>
+        <v>-7.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10.01.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18.01.2024</t>
+          <t>16.10.2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>StatTrak™ AK-47 | Nightwish (Battle-Scarred)</t>
+          <t>MP5-SD | Liquidation (Factory New)</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1080</v>
+        <v>32.52</v>
       </c>
       <c r="E19" t="n">
-        <v>1164.7</v>
+        <v>47.5</v>
       </c>
       <c r="F19" t="n">
-        <v>84.7</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>12.01.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>21.01.2024</t>
+          <t>23.10.2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>StatTrak™ AUG | Bengal Tiger (Well-Worn)</t>
+          <t>SSG 08 | Fever Dream (Field-Tested)</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>934.5</v>
+        <v>32.52</v>
       </c>
       <c r="E20" t="n">
-        <v>940.5</v>
+        <v>37.05</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>13.01.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>21.01.2024</t>
+          <t>16.10.2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>StatTrak™ Glock-18 | Water Elemental (Battle-Scarred)</t>
+          <t>Anubis Collection Package</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>740</v>
+        <v>135.09</v>
       </c>
       <c r="E21" t="n">
-        <v>902.5</v>
+        <v>161.5</v>
       </c>
       <c r="F21" t="n">
-        <v>162.5</v>
+        <v>26.41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>13.01.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>22.01.2024</t>
+          <t>16.10.2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>StatTrak™ P250 | Asiimov (Battle-Scarred)</t>
+          <t>CZ75-Auto | Polymer (Minimal Wear)</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>360.77</v>
+        <v>20.54</v>
       </c>
       <c r="E22" t="n">
-        <v>441.75</v>
+        <v>21.85</v>
       </c>
       <c r="F22" t="n">
-        <v>80.98</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>15.01.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>23.01.2024</t>
+          <t>19.10.2023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>StatTrak™ PP-Bizon | High Roller (Battle-Scarred)</t>
+          <t>Desert Eagle | Crimson Web (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>384.2</v>
+        <v>560</v>
       </c>
       <c r="E23" t="n">
-        <v>427.5</v>
+        <v>589</v>
       </c>
       <c r="F23" t="n">
-        <v>43.3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>16.01.2024</t>
+          <t>08.10.2023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>24.01.2024</t>
+          <t>16.10.2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>StatTrak™ M4A1-S | Leaded Glass (Field-Tested)</t>
+          <t>StatTrak™ Dual Berettas | Panther (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>911.24</v>
+        <v>178.93</v>
       </c>
       <c r="E24" t="n">
-        <v>931.95</v>
+        <v>209</v>
       </c>
       <c r="F24" t="n">
-        <v>20.71</v>
+        <v>30.07</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>18.01.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>26.01.2024</t>
+          <t>05.11.2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>StatTrak™ AUG | Chameleon (Battle-Scarred)</t>
+          <t>StatTrak™ PP-Bizon | Space Cat (Field-Tested)</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>818.91</v>
+        <v>40.88</v>
       </c>
       <c r="E25" t="n">
-        <v>788.5</v>
+        <v>31.35</v>
       </c>
       <c r="F25" t="n">
-        <v>-30.41</v>
+        <v>-9.529999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>18.01.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>26.01.2024</t>
+          <t>19.10.2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>StatTrak™ M4A1-S | Leaded Glass (Battle-Scarred)</t>
+          <t>P250 | Vino Primo (Well-Worn)</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>941.22</v>
+        <v>160</v>
       </c>
       <c r="E26" t="n">
-        <v>1011.75</v>
+        <v>177.65</v>
       </c>
       <c r="F26" t="n">
-        <v>70.53</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>18.01.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>26.01.2024</t>
+          <t>17.10.2023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>StatTrak™ M4A4 | Evil Daimyo (Field-Tested)</t>
+          <t>StatTrak™ P90 | Virus (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>398.83</v>
+        <v>203.39</v>
       </c>
       <c r="E27" t="n">
-        <v>560.5</v>
+        <v>332.5</v>
       </c>
       <c r="F27" t="n">
-        <v>161.67</v>
+        <v>129.11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>18.01.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>26.01.2024</t>
+          <t>26.10.2023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Five-SeveN | Hyper Beast (Field-Tested)</t>
+          <t>SSG 08 | Spring Twilly (Factory New)</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1995.04</v>
+        <v>94</v>
       </c>
       <c r="E28" t="n">
-        <v>2517.5</v>
+        <v>95.95</v>
       </c>
       <c r="F28" t="n">
-        <v>522.46</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>18.01.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>26.01.2024</t>
+          <t>30.10.2023</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AK-47 | Blue Laminate (Field-Tested)</t>
+          <t>StatTrak™ PP-Bizon | Space Cat (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>800</v>
+        <v>25.65</v>
       </c>
       <c r="E29" t="n">
-        <v>707.75</v>
+        <v>25.65</v>
       </c>
       <c r="F29" t="n">
-        <v>-92.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>18.01.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>26.01.2024</t>
+          <t>18.10.2023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>StatTrak™ AWP | Exoskeleton (Field-Tested)</t>
+          <t>AWP | Exoskeleton (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>470.06</v>
+        <v>158</v>
       </c>
       <c r="E30" t="n">
-        <v>403.75</v>
+        <v>190</v>
       </c>
       <c r="F30" t="n">
-        <v>-66.31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>18.01.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>26.01.2024</t>
+          <t>21.10.2023</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>StatTrak™ AWP | Exoskeleton (Field-Tested)</t>
+          <t>StatTrak™ AWP | PAW (Field-Tested)</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>447.99</v>
+        <v>396</v>
       </c>
       <c r="E31" t="n">
-        <v>406.6</v>
+        <v>408.5</v>
       </c>
       <c r="F31" t="n">
-        <v>-41.39</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>18.01.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26.01.2024</t>
+          <t>25.10.2023</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>StatTrak™ SCAR-20 | Cardiac (Well-Worn)</t>
+          <t>G3SG1 | Ancient Ritual (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>777.59</v>
+        <v>273.45</v>
       </c>
       <c r="E32" t="n">
-        <v>712.5</v>
+        <v>294.5</v>
       </c>
       <c r="F32" t="n">
-        <v>-65.09</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>19.01.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>27.01.2024</t>
+          <t>18.10.2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PP-Bizon | Rust Coat (Field-Tested)</t>
+          <t>Desert Eagle | Blue Ply (Field-Tested)</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>709.75</v>
+        <v>10.53</v>
       </c>
       <c r="E33" t="n">
-        <v>760</v>
+        <v>17.1</v>
       </c>
       <c r="F33" t="n">
-        <v>50.25</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>19.01.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>28.01.2024</t>
+          <t>18.10.2023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>StatTrak™ AUG | Torque (Well-Worn)</t>
+          <t>AWP | Exoskeleton (Well-Worn)</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>700</v>
+        <v>156</v>
       </c>
       <c r="E34" t="n">
-        <v>722</v>
+        <v>199.5</v>
       </c>
       <c r="F34" t="n">
-        <v>22</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>21.01.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>29.01.2024</t>
+          <t>19.10.2023</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AK-47 | Cartel (Field-Tested)</t>
+          <t>Canals Pin</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>500</v>
+        <v>181.41</v>
       </c>
       <c r="E35" t="n">
-        <v>522.5</v>
+        <v>190</v>
       </c>
       <c r="F35" t="n">
-        <v>22.5</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>23.01.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>31.01.2024</t>
+          <t>17.10.2023</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>StatTrak™ M4A4 | Evil Daimyo (Field-Tested)</t>
+          <t>Dual Berettas | Panther (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>397.95</v>
+        <v>139.15</v>
       </c>
       <c r="E36" t="n">
-        <v>532</v>
+        <v>190</v>
       </c>
       <c r="F36" t="n">
-        <v>134.05</v>
+        <v>50.85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>27.01.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07.02.2024</t>
+          <t>20.10.2023</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>StatTrak™ M4A4 | The Battlestar (Minimal Wear)</t>
+          <t>P250 | Vino Primo (Well-Worn)</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1865.05</v>
+        <v>161</v>
       </c>
       <c r="E37" t="n">
-        <v>1795.5</v>
+        <v>180.5</v>
       </c>
       <c r="F37" t="n">
-        <v>-69.55</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>28.01.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>05.02.2024</t>
+          <t>01.11.2023</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Five-SeveN | Hyper Beast (Battle-Scarred)</t>
+          <t>Desert Eagle | Bronze Deco (Factory New)</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1964</v>
+        <v>122.14</v>
       </c>
       <c r="E38" t="n">
-        <v>2470</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>506</v>
+        <v>-44.24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>29.01.2024</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>06.02.2024</t>
+          <t>19.10.2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>StatTrak™ P250 | Asiimov (Well-Worn)</t>
+          <t>SSG 08 | Mayan Dreams (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>600</v>
+        <v>356.84</v>
       </c>
       <c r="E39" t="n">
-        <v>665</v>
+        <v>380</v>
       </c>
       <c r="F39" t="n">
-        <v>65</v>
+        <v>23.16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30.01.2024</t>
+          <t>10.10.2023</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>07.02.2024</t>
+          <t>04.11.2023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>M4A4 | Temukau (Field-Tested)</t>
+          <t>UMP-45 | Plastique (Factory New)</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1225.81</v>
+        <v>146.13</v>
       </c>
       <c r="E40" t="n">
-        <v>1306.25</v>
+        <v>114</v>
       </c>
       <c r="F40" t="n">
-        <v>80.44</v>
+        <v>-32.13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30.01.2024</t>
+          <t>10.10.2023</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>07.02.2024</t>
+          <t>18.10.2023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>M4A4 | 龍王 (Dragon King) (Minimal Wear)</t>
+          <t>MP7 | Nemesis (Field-Tested)</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>873.78</v>
+        <v>470</v>
       </c>
       <c r="E41" t="n">
-        <v>940.5</v>
+        <v>513</v>
       </c>
       <c r="F41" t="n">
-        <v>66.72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30.01.2024</t>
+          <t>11.10.2023</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>07.02.2024</t>
+          <t>06.11.2023</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>StatTrak™ M4A4 | Temukau (Field-Tested)</t>
+          <t>Fracture Case</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2540.06</v>
+        <v>52</v>
       </c>
       <c r="E42" t="n">
-        <v>2724.6</v>
+        <v>41.44</v>
       </c>
       <c r="F42" t="n">
-        <v>184.54</v>
+        <v>-10.56</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30.01.2024</t>
+          <t>23.10.2023</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>07.02.2024</t>
+          <t>04.11.2023</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AK-47 | Aquamarine Revenge (Battle-Scarred)</t>
+          <t>M4A1-S | Emphorosaur-S (Field-Tested)</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1157.9</v>
+        <v>71</v>
       </c>
       <c r="E43" t="n">
-        <v>1225.5</v>
+        <v>59.85</v>
       </c>
       <c r="F43" t="n">
-        <v>67.59999999999999</v>
+        <v>-11.15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30.01.2024</t>
+          <t>23.10.2023</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>07.02.2024</t>
+          <t>05.11.2023</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>M4A1-S | Basilisk (Minimal Wear)</t>
+          <t>StatTrak™ Music Kit | bbno$, u mad!</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>400</v>
+        <v>489.05</v>
       </c>
       <c r="E44" t="n">
         <v>427.5</v>
       </c>
       <c r="F44" t="n">
-        <v>27.5</v>
+        <v>-61.55</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>31.01.2024</t>
+          <t>23.10.2023</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>08.02.2024</t>
+          <t>02.11.2023</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AK-47 | Nightwish (Battle-Scarred)</t>
+          <t>StatTrak™ MAC-10 | Toybox (Well-Worn)</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>421.01</v>
+        <v>500</v>
       </c>
       <c r="E45" t="n">
-        <v>443.65</v>
+        <v>503.5</v>
       </c>
       <c r="F45" t="n">
-        <v>22.64</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>31.01.2024</t>
+          <t>23.10.2023</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>09.02.2024</t>
+          <t>31.10.2023</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>M4A4 | Desolate Space (Minimal Wear)</t>
+          <t>Galil AR | Vandal (Field-Tested)</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>583.33</v>
+        <v>23</v>
       </c>
       <c r="E46" t="n">
-        <v>693.5</v>
+        <v>38</v>
       </c>
       <c r="F46" t="n">
-        <v>110.17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>09.02.2024</t>
+          <t>23.10.2023</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17.02.2024</t>
+          <t>05.11.2023</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>StatTrak™ M4A1-S | Leaded Glass (Field-Tested)</t>
+          <t>AUG | Chameleon (Factory New)</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>974</v>
+        <v>509</v>
       </c>
       <c r="E47" t="n">
-        <v>1073.5</v>
+        <v>410.4</v>
       </c>
       <c r="F47" t="n">
-        <v>99.5</v>
+        <v>-98.59999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>10.02.2024</t>
+          <t>23.10.2023</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>18.02.2024</t>
+          <t>31.10.2023</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>StatTrak™ M4A4 | Cyber Security (Battle-Scarred)</t>
+          <t>StatTrak™ AK-47 | Ice Coaled (Field-Tested)</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1750</v>
+        <v>1260.16</v>
       </c>
       <c r="E48" t="n">
-        <v>1900</v>
+        <v>1330</v>
       </c>
       <c r="F48" t="n">
-        <v>150</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>10.02.2024</t>
+          <t>23.10.2023</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>18.02.2024</t>
+          <t>04.11.2023</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>StatTrak™ AWP | Duality (Minimal Wear)</t>
+          <t>Aces High Pin</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1346</v>
+        <v>557.89</v>
       </c>
       <c r="E49" t="n">
-        <v>1425</v>
+        <v>517.75</v>
       </c>
       <c r="F49" t="n">
-        <v>79</v>
+        <v>-40.14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10.02.2024</t>
+          <t>24.10.2023</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>18.02.2024</t>
+          <t>01.11.2023</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AWP | Neo-Noir (Battle-Scarred)</t>
+          <t>USP-S | Cortex (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1368.43</v>
+        <v>135</v>
       </c>
       <c r="E50" t="n">
-        <v>1852.5</v>
+        <v>171</v>
       </c>
       <c r="F50" t="n">
-        <v>484.07</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>11.02.2024</t>
+          <t>24.10.2023</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>19.02.2024</t>
+          <t>01.11.2023</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>StatTrak™ AWP | Chromatic Aberration (Battle-Scarred)</t>
+          <t>Dual Berettas | Twin Turbo (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1526.41</v>
+        <v>160</v>
       </c>
       <c r="E51" t="n">
-        <v>1533.3</v>
+        <v>175.75</v>
       </c>
       <c r="F51" t="n">
-        <v>6.89</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>11.02.2024</t>
+          <t>06.11.2023</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>20.02.2024</t>
+          <t>20.11.2023</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Desert Eagle | Printstream (Well-Worn)</t>
+          <t>StatTrak™ Five-SeveN | Fairy Tale (Well-Worn)</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="E52" t="n">
-        <v>2660</v>
+        <v>1520</v>
       </c>
       <c r="F52" t="n">
-        <v>360</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>11.02.2024</t>
+          <t>07.11.2023</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>20.02.2024</t>
+          <t>15.11.2023</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>StatTrak™ AWP | Chromatic Aberration (Battle-Scarred)</t>
+          <t>AWP | Hyper Beast (Well-Worn)</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1550</v>
+        <v>1741.61</v>
       </c>
       <c r="E53" t="n">
-        <v>1533</v>
+        <v>1757.5</v>
       </c>
       <c r="F53" t="n">
-        <v>-17</v>
+        <v>15.89</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>11.02.2024</t>
+          <t>08.11.2023</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>19.02.2024</t>
+          <t>23.11.2023</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>StatTrak™ MP9 | Starlight Protector (Battle-Scarred)</t>
+          <t>PP-Bizon | Carbon Fiber (Factory New)</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>513.41</v>
+        <v>1047.52</v>
       </c>
       <c r="E54" t="n">
-        <v>589</v>
+        <v>760</v>
       </c>
       <c r="F54" t="n">
-        <v>75.59</v>
+        <v>-287.52</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>11.02.2024</t>
+          <t>18.11.2023</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>19.02.2024</t>
+          <t>26.11.2023</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>USP-S | Monster Mashup (Well-Worn)</t>
+          <t>SSG 08 | Death's Head (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1099</v>
+        <v>509</v>
       </c>
       <c r="E55" t="n">
-        <v>1301.5</v>
+        <v>627</v>
       </c>
       <c r="F55" t="n">
-        <v>202.5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20.02.2024</t>
+          <t>18.11.2023</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>28.02.2024</t>
+          <t>26.11.2023</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>AK-47 | Head Shot (Minimal Wear)</t>
+          <t>AWP | Duality (Minimal Wear)</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2589.65</v>
+        <v>434</v>
       </c>
       <c r="E56" t="n">
-        <v>2802.5</v>
+        <v>513</v>
       </c>
       <c r="F56" t="n">
-        <v>212.85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>23.02.2024</t>
+          <t>18.11.2023</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>02.03.2024</t>
+          <t>26.11.2023</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>M4A4 | Temukau (Well-Worn)</t>
+          <t>M4A1-S | Decimator (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1300</v>
+        <v>844</v>
       </c>
       <c r="E57" t="n">
-        <v>1518.1</v>
+        <v>779</v>
       </c>
       <c r="F57" t="n">
-        <v>218.1</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>23.02.2024</t>
+          <t>20.11.2023</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>05.03.2024</t>
+          <t>28.11.2023</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>StatTrak™ AK-47 | Redline (Well-Worn)</t>
+          <t>AK-47 | Head Shot (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2750</v>
+        <v>650</v>
       </c>
       <c r="E58" t="n">
-        <v>2802.5</v>
+        <v>769.5</v>
       </c>
       <c r="F58" t="n">
-        <v>52.5</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>25.02.2024</t>
+          <t>22.11.2023</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>04.03.2024</t>
+          <t>30.11.2023</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Desert Eagle | Printstream (Battle-Scarred)</t>
+          <t>AK-47 | Nightwish (Well-Worn)</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2400</v>
+        <v>570</v>
       </c>
       <c r="E59" t="n">
-        <v>2536.5</v>
+        <v>665</v>
       </c>
       <c r="F59" t="n">
-        <v>136.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>25.02.2024</t>
+          <t>23.11.2023</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>04.03.2024</t>
+          <t>01.12.2023</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>P90 | Asiimov (Battle-Scarred)</t>
+          <t>USP-S | Neo-Noir (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>467.92</v>
+        <v>861.77</v>
       </c>
       <c r="E60" t="n">
-        <v>767.6</v>
+        <v>1092.5</v>
       </c>
       <c r="F60" t="n">
-        <v>299.68</v>
+        <v>230.73</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>25.02.2024</t>
+          <t>26.11.2023</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>04.03.2024</t>
+          <t>04.12.2023</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>StatTrak™ AWP | PAW (Field-Tested)</t>
+          <t>Sergeant Bombson | SWAT</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>475.83</v>
+        <v>300</v>
       </c>
       <c r="E61" t="n">
-        <v>485.45</v>
+        <v>427.5</v>
       </c>
       <c r="F61" t="n">
-        <v>9.619999999999999</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>26.02.2024</t>
+          <t>26.11.2023</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>05.03.2024</t>
+          <t>04.12.2023</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1st Lieutenant Farlow | SWAT</t>
+          <t>AK-47 | Redline (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="E62" t="n">
-        <v>437</v>
+        <v>1111.5</v>
       </c>
       <c r="F62" t="n">
-        <v>-43</v>
+        <v>311.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>27.02.2024</t>
+          <t>26.11.2023</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>06.03.2024</t>
+          <t>04.12.2023</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>StatTrak™ Desert Eagle | Mecha Industries (Field-Tested)</t>
+          <t>AK-47 | Legion of Anubis (Well-Worn)</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>874</v>
+        <v>670</v>
       </c>
       <c r="E63" t="n">
-        <v>853.1</v>
+        <v>612.75</v>
       </c>
       <c r="F63" t="n">
-        <v>-20.9</v>
+        <v>-57.25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>27.02.2024</t>
+          <t>28.11.2023</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>06.03.2024</t>
+          <t>06.12.2023</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>M4A1-S | Cyrex (Field-Tested)</t>
+          <t>M4A4 | The Emperor (Well-Worn)</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1550</v>
+        <v>885.86</v>
       </c>
       <c r="E64" t="n">
-        <v>1567.5</v>
+        <v>969</v>
       </c>
       <c r="F64" t="n">
-        <v>17.5</v>
+        <v>83.14</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>27.02.2024</t>
+          <t>29.11.2023</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>06.03.2024</t>
+          <t>07.12.2023</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>StatTrak™ AK-47 | Head Shot (Battle-Scarred)</t>
+          <t>P250 | Mehndi (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1842.17</v>
+        <v>650</v>
       </c>
       <c r="E65" t="n">
-        <v>1966.5</v>
+        <v>712.5</v>
       </c>
       <c r="F65" t="n">
-        <v>124.33</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>01.03.2024</t>
+          <t>30.11.2023</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>09.03.2024</t>
+          <t>08.12.2023</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>USP-S | Monster Mashup (Battle-Scarred)</t>
+          <t>StatTrak™ USP-S | Blueprint (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1300</v>
+        <v>655</v>
       </c>
       <c r="E66" t="n">
-        <v>1444</v>
+        <v>731.5</v>
       </c>
       <c r="F66" t="n">
-        <v>144</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>01.03.2024</t>
+          <t>01.12.2023</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>09.03.2024</t>
+          <t>09.12.2023</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>AK-47 | Cartel (Factory New)</t>
+          <t>StatTrak™ CZ75-Auto | Yellow Jacket (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1860</v>
+        <v>555.27</v>
       </c>
       <c r="E67" t="n">
-        <v>2014</v>
+        <v>598.5</v>
       </c>
       <c r="F67" t="n">
-        <v>154</v>
+        <v>43.23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>03.03.2024</t>
+          <t>02.12.2023</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11.03.2024</t>
+          <t>10.12.2023</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>AK-47 | Green Laminate (Minimal Wear)</t>
+          <t>M4A4 | Royal Paladin (Well-Worn)</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1102.43</v>
+        <v>739.3200000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>1472.5</v>
+        <v>703</v>
       </c>
       <c r="F68" t="n">
-        <v>370.07</v>
+        <v>-36.32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>05.03.2024</t>
+          <t>06.12.2023</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>13.03.2024</t>
+          <t>14.12.2023</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>AK-47 | Neon Revolution (Battle-Scarred)</t>
+          <t>StatTrak™ MP7 | Ocean Foam (Factory New)</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E69" t="n">
-        <v>1140</v>
+        <v>665</v>
       </c>
       <c r="F69" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>06.03.2024</t>
+          <t>06.12.2023</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>14.03.2024</t>
+          <t>14.12.2023</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>M4A1-S | Black Lotus (Field-Tested)</t>
+          <t>CZ75-Auto | Tread Plate (Field-Tested)</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2400</v>
+        <v>402.79</v>
       </c>
       <c r="E70" t="n">
-        <v>2600</v>
+        <v>458.85</v>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>56.06</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>06.03.2024</t>
+          <t>07.12.2023</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>14.03.2024</t>
+          <t>15.12.2023</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MAC-10 | Neon Rider (Field-Tested)</t>
+          <t>SG 553 | Integrale (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>669.76</v>
+        <v>829.4400000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>513</v>
+        <v>779</v>
       </c>
       <c r="F71" t="n">
-        <v>-156.76</v>
+        <v>-50.44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>06.03.2024</t>
+          <t>07.12.2023</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>14.03.2024</t>
+          <t>15.12.2023</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>M4A1-S | Moss Quartz (Field-Tested)</t>
+          <t>Dual Berettas | Marina (Minimal Wear)</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1994.59</v>
+        <v>464.41</v>
       </c>
       <c r="E72" t="n">
-        <v>2042.5</v>
+        <v>418</v>
       </c>
       <c r="F72" t="n">
-        <v>47.91</v>
+        <v>-46.41</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>07.03.2024</t>
+          <t>07.12.2023</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>15.03.2024</t>
+          <t>15.12.2023</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>M4A1-S | Mecha Industries (Battle-Scarred)</t>
+          <t>StatTrak™ AWP | Duality (Field-Tested)</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1400</v>
+        <v>880</v>
       </c>
       <c r="E73" t="n">
-        <v>1567.5</v>
+        <v>798</v>
       </c>
       <c r="F73" t="n">
-        <v>167.5</v>
+        <v>-82</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>07.03.2024</t>
+          <t>07.12.2023</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15.03.2024</t>
+          <t>15.12.2023</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>UMP-45 | Blaze (Factory New)</t>
+          <t>USP-S | Purple DDPAT (Minimal Wear)</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1588</v>
+        <v>828</v>
       </c>
       <c r="E74" t="n">
-        <v>1520</v>
+        <v>950</v>
       </c>
       <c r="F74" t="n">
-        <v>-68</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>07.03.2024</t>
+          <t>08.12.2023</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>15.03.2024</t>
+          <t>16.12.2023</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>USP-S | Jawbreaker (Battle-Scarred)</t>
+          <t>StatTrak™ P250 | See Ya Later (Field-Tested)</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1064.76</v>
+        <v>552.97</v>
       </c>
       <c r="E75" t="n">
-        <v>1073.5</v>
+        <v>579.5</v>
       </c>
       <c r="F75" t="n">
-        <v>8.74</v>
+        <v>26.53</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>08.03.2024</t>
+          <t>09.12.2023</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16.03.2024</t>
+          <t>17.12.2023</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>StatTrak™ M4A4 | Temukau (Battle-Scarred)</t>
+          <t>P250 | Red Rock (Well-Worn)</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2100</v>
+        <v>405</v>
       </c>
       <c r="E76" t="n">
-        <v>2014</v>
+        <v>389.5</v>
       </c>
       <c r="F76" t="n">
-        <v>-86</v>
+        <v>-15.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>08.03.2024</t>
+          <t>10.12.2023</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16.03.2024</t>
+          <t>19.12.2023</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>M4A1-S | Black Lotus (Field-Tested)</t>
+          <t>StatTrak™ FAMAS | Pulse (Minimal Wear)</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2390</v>
+        <v>892.15</v>
       </c>
       <c r="E77" t="n">
-        <v>2775.9</v>
+        <v>845.5</v>
       </c>
       <c r="F77" t="n">
-        <v>385.9</v>
+        <v>-46.65</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>08.03.2024</t>
+          <t>15.12.2023</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16.03.2024</t>
+          <t>23.12.2023</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>StatTrak™ Glock-18 | Snack Attack (Well-Worn)</t>
+          <t>StatTrak™ Desert Eagle | Mecha Industries (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>650</v>
+        <v>580</v>
       </c>
       <c r="E78" t="n">
-        <v>717.25</v>
+        <v>617.5</v>
       </c>
       <c r="F78" t="n">
-        <v>67.25</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>08.03.2024</t>
+          <t>15.12.2023</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16.03.2024</t>
+          <t>23.12.2023</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Desert Eagle | Night (Battle-Scarred)</t>
+          <t>M4A1-S | Decimator (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>895</v>
+        <v>725</v>
       </c>
       <c r="E79" t="n">
-        <v>778.05</v>
+        <v>783.75</v>
       </c>
       <c r="F79" t="n">
-        <v>-116.95</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>10.03.2024</t>
+          <t>17.12.2023</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>18.03.2024</t>
+          <t>26.12.2023</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>USP-S | Royal Blue (Well-Worn)</t>
+          <t>StatTrak™ Desert Eagle | Mecha Industries (Well-Worn)</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1077</v>
+        <v>857</v>
       </c>
       <c r="E80" t="n">
-        <v>1140</v>
+        <v>807.5</v>
       </c>
       <c r="F80" t="n">
-        <v>63</v>
+        <v>-49.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>11.03.2024</t>
+          <t>17.12.2023</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>20.03.2024</t>
+          <t>25.12.2023</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Glock-18 | Reactor (Factory New)</t>
+          <t>AK-47 | Frontside Misty (Well-Worn)</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>880.8099999999999</v>
+        <v>800</v>
       </c>
       <c r="E81" t="n">
-        <v>950</v>
+        <v>745.75</v>
       </c>
       <c r="F81" t="n">
-        <v>69.19</v>
+        <v>-54.25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>12.03.2024</t>
+          <t>17.12.2023</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>20.03.2024</t>
+          <t>26.12.2023</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>StatTrak™ M4A4 | Buzz Kill (Battle-Scarred)</t>
+          <t>StatTrak™ USP-S | Cortex (Minimal Wear)</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1600</v>
+        <v>683.9</v>
       </c>
       <c r="E82" t="n">
-        <v>1757.5</v>
+        <v>674.5</v>
       </c>
       <c r="F82" t="n">
-        <v>157.5</v>
+        <v>-9.4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>12.03.2024</t>
+          <t>17.12.2023</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>20.03.2024</t>
+          <t>25.12.2023</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>StatTrak™ Desert Eagle | Conspiracy (Field-Tested)</t>
+          <t>FAMAS | Pulse (Field-Tested)</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1111</v>
+        <v>540</v>
       </c>
       <c r="E83" t="n">
-        <v>1121</v>
+        <v>473.9</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>-66.09999999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>15.03.2024</t>
+          <t>17.12.2023</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>23.03.2024</t>
+          <t>26.12.2023</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>AK-47 | Point Disarray (Factory New)</t>
+          <t>SCAR-20 | Cardiac (Minimal Wear)</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2152.64</v>
+        <v>441.97</v>
       </c>
       <c r="E84" t="n">
-        <v>2375</v>
+        <v>285.9</v>
       </c>
       <c r="F84" t="n">
-        <v>222.36</v>
+        <v>-156.07</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>16.03.2024</t>
+          <t>18.12.2023</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>24.03.2024</t>
+          <t>26.12.2023</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>StatTrak™ M4A4 | Neo-Noir (Battle-Scarred)</t>
+          <t>AK-47 | Nightwish (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1072.54</v>
+        <v>430</v>
       </c>
       <c r="E85" t="n">
-        <v>1173.25</v>
+        <v>469.3</v>
       </c>
       <c r="F85" t="n">
-        <v>100.71</v>
+        <v>39.3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>16.03.2024</t>
+          <t>23.12.2023</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>24.03.2024</t>
+          <t>31.12.2023</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>StatTrak™ AK-47 | Leet Museo (Battle-Scarred)</t>
+          <t>StatTrak™ AUG | Chameleon (Field-Tested)</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4379</v>
+        <v>864.72</v>
       </c>
       <c r="E86" t="n">
-        <v>5035</v>
+        <v>950</v>
       </c>
       <c r="F86" t="n">
-        <v>656</v>
+        <v>85.28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>17.03.2024</t>
+          <t>23.12.2023</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>25.03.2024</t>
+          <t>31.12.2023</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>StatTrak™ M4A1-S | Leaded Glass (Battle-Scarred)</t>
+          <t>M4A1-S | Control Panel (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1040</v>
+        <v>475</v>
       </c>
       <c r="E87" t="n">
-        <v>1130.5</v>
+        <v>541.5</v>
       </c>
       <c r="F87" t="n">
-        <v>90.5</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>17.03.2024</t>
+          <t>27.12.2023</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>26.03.2024</t>
+          <t>04.01.2024</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>USP-S | Ancient Visions (Field-Tested)</t>
+          <t>StatTrak™ MP5-SD | Phosphor (Well-Worn)</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>3833.85</v>
+        <v>540</v>
       </c>
       <c r="E88" t="n">
-        <v>3781.95</v>
+        <v>513</v>
       </c>
       <c r="F88" t="n">
-        <v>-51.9</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>17.03.2024</t>
+          <t>28.12.2023</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>25.03.2024</t>
+          <t>05.01.2024</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>StatTrak™ AK-47 | Nightwish (Field-Tested)</t>
+          <t>StatTrak™ UMP-45 | Momentum (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2144.25</v>
+        <v>550</v>
       </c>
       <c r="E89" t="n">
-        <v>2042.5</v>
+        <v>541.5</v>
       </c>
       <c r="F89" t="n">
-        <v>-101.75</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>17.03.2024</t>
+          <t>28.12.2023</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>25.03.2024</t>
+          <t>05.01.2024</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>USP-S | Jawbreaker (Minimal Wear)</t>
+          <t>P250 | Red Rock (Battle-Scarred)</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2300</v>
+        <v>416</v>
       </c>
       <c r="E90" t="n">
-        <v>2375</v>
+        <v>475</v>
       </c>
       <c r="F90" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20.03.2024</t>
+          <t>28.12.2023</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>29.03.2024</t>
+          <t>05.01.2024</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Glock-18 | Water Elemental (Factory New)</t>
+          <t>StatTrak™ Tec-9 | Fuel Injector (Field-Tested)</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>999</v>
+        <v>434.75</v>
       </c>
       <c r="E91" t="n">
-        <v>950</v>
+        <v>513</v>
       </c>
       <c r="F91" t="n">
-        <v>-49</v>
+        <v>78.25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>21.03.2024</t>
+          <t>28.12.2023</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>29.03.2024</t>
+          <t>05.01.2024</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>P250 | Hive (Factory New)</t>
+          <t>StatTrak™ SSG 08 | Turbo Peek (Field-Tested)</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>611</v>
+        <v>739.65</v>
       </c>
       <c r="E92" t="n">
-        <v>465.5</v>
+        <v>764.75</v>
       </c>
       <c r="F92" t="n">
-        <v>-145.5</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>21.03.2024</t>
+          <t>28.12.2023</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>29.03.2024</t>
+          <t>05.01.2024</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>USP-S | Para Green (Field-Tested)</t>
+          <t>Glock-18 | Nuclear Garden (Factory New)</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>830.9299999999999</v>
+        <v>690.4</v>
       </c>
       <c r="E93" t="n">
-        <v>855</v>
+        <v>722</v>
       </c>
       <c r="F93" t="n">
-        <v>24.07</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>24.03.2024</t>
+          <t>28.12.2023</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>01.04.2024</t>
+          <t>05.01.2024</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>USP-S | Jawbreaker (Battle-Scarred)</t>
+          <t>StatTrak™ SSG 08 | Turbo Peek (Field-Tested)</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1022.57</v>
+        <v>755</v>
       </c>
       <c r="E94" t="n">
-        <v>874</v>
+        <v>769.5</v>
       </c>
       <c r="F94" t="n">
-        <v>-148.57</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>24.03.2024</t>
+          <t>30.12.2023</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>01.04.2024</t>
+          <t>07.01.2024</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>USP-S | Jawbreaker (Factory New)</t>
+          <t>Glock-18 | Water Elemental (Minimal Wear)</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3551.78</v>
+        <v>470.35</v>
       </c>
       <c r="E95" t="n">
-        <v>3182.5</v>
+        <v>589</v>
       </c>
       <c r="F95" t="n">
-        <v>-369.28</v>
+        <v>118.65</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>24.03.2024</t>
+          <t>30.12.2023</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>01.04.2024</t>
+          <t>07.01.2024</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Dual Berettas | Demolition (Field-Tested)</t>
+          <t>Glock-18 | Bullet Queen (Field-Tested)</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>824.84</v>
+        <v>584.2</v>
       </c>
       <c r="E96" t="n">
-        <v>950</v>
+        <v>437</v>
       </c>
       <c r="F96" t="n">
-        <v>125.16</v>
+        <v>-147.2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>24.03.2024</t>
+          <t>31.12.2023</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>01.04.2024</t>
+          <t>08.01.2024</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Glock-18 | Neo-Noir (Battle-Scarred)</t>
+          <t>Glock-18 | Water Elemental (Minimal Wear)</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>600</v>
+        <v>471.94</v>
       </c>
       <c r="E97" t="n">
-        <v>570</v>
+        <v>579.5</v>
       </c>
       <c r="F97" t="n">
-        <v>-30</v>
+        <v>107.56</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Итог: 6801.59</t>
+          <t>31.12.2023</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>08.01.2024</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>M4A1-S | Leaded Glass (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>458</v>
+      </c>
+      <c r="E98" t="n">
+        <v>484.5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>31.12.2023</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>08.01.2024</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A1-S | Briefing (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>662</v>
+      </c>
+      <c r="E99" t="n">
+        <v>760</v>
+      </c>
+      <c r="F99" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>31.12.2023</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>08.01.2024</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>M4A4 | Desolate Space (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>399.45</v>
+      </c>
+      <c r="E100" t="n">
+        <v>418</v>
+      </c>
+      <c r="F100" t="n">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>R8 Revolver | Fade (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>538.77</v>
+      </c>
+      <c r="E101" t="n">
+        <v>555.75</v>
+      </c>
+      <c r="F101" t="n">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>StatTrak™ FAMAS | Roll Cage (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>535</v>
+      </c>
+      <c r="E102" t="n">
+        <v>484.5</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-50.5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>M4A1-S | Leaded Glass (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>427</v>
+      </c>
+      <c r="E103" t="n">
+        <v>365.75</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-61.25</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Glock-18 | Wasteland Rebel (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>497.87</v>
+      </c>
+      <c r="E104" t="n">
+        <v>380</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-117.87</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>CZ75-Auto | Victoria (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>390</v>
+      </c>
+      <c r="E105" t="n">
+        <v>323</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>AK-47 | Legion of Anubis (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>647.47</v>
+      </c>
+      <c r="E106" t="n">
+        <v>513</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-134.47</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>AK-47 | Safety Net (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>400.18</v>
+      </c>
+      <c r="E107" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-105.68</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>04.01.2024</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>12.01.2024</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>M4A4 | Buzz Kill (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>530</v>
+      </c>
+      <c r="E108" t="n">
+        <v>574.38</v>
+      </c>
+      <c r="F108" t="n">
+        <v>44.38</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>07.01.2024</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>15.01.2024</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Desert Eagle | Code Red (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1000.78</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1192.25</v>
+      </c>
+      <c r="F109" t="n">
+        <v>191.47</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>07.01.2024</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>17.01.2024</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A4 | Tooth Fairy (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>393.84</v>
+      </c>
+      <c r="E110" t="n">
+        <v>342</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-51.84</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>07.01.2024</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>19.01.2024</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>1147</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1130.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-16.5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>08.01.2024</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>17.01.2024</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>StatTrak™ MAC-10 | Heat (Factory New)</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1092.5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>08.01.2024</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>16.01.2024</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>AK-47 | Frontside Misty (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>570</v>
+      </c>
+      <c r="E113" t="n">
+        <v>644.1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>M4A4 | Temukau (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>570</v>
+      </c>
+      <c r="E114" t="n">
+        <v>757.15</v>
+      </c>
+      <c r="F114" t="n">
+        <v>187.15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>17.01.2024</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>M4A4 | Bullet Rain (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1268.48</v>
+      </c>
+      <c r="F115" t="n">
+        <v>168.48</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>StatTrak™ SG 553 | Cyrex (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>570</v>
+      </c>
+      <c r="E116" t="n">
+        <v>589</v>
+      </c>
+      <c r="F116" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>10.01.2024</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A1-S | Leaded Glass (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>785</v>
+      </c>
+      <c r="E117" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>212.5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>10.01.2024</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>StatTrak™ AK-47 | Nightwish (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>1080</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1164.7</v>
+      </c>
+      <c r="F118" t="n">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>12.01.2024</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>21.01.2024</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>StatTrak™ AUG | Bengal Tiger (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>934.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>940.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>13.01.2024</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>21.01.2024</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>StatTrak™ Glock-18 | Water Elemental (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>740</v>
+      </c>
+      <c r="E120" t="n">
+        <v>902.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>13.01.2024</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>22.01.2024</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>StatTrak™ P250 | Asiimov (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>360.77</v>
+      </c>
+      <c r="E121" t="n">
+        <v>441.75</v>
+      </c>
+      <c r="F121" t="n">
+        <v>80.98</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>15.01.2024</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>23.01.2024</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>StatTrak™ PP-Bizon | High Roller (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>384.2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>427.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>16.01.2024</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>24.01.2024</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A1-S | Leaded Glass (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>911.24</v>
+      </c>
+      <c r="E123" t="n">
+        <v>931.95</v>
+      </c>
+      <c r="F123" t="n">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>26.01.2024</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>StatTrak™ AUG | Chameleon (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>818.91</v>
+      </c>
+      <c r="E124" t="n">
+        <v>788.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-30.41</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>26.01.2024</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A1-S | Leaded Glass (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>941.22</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1011.75</v>
+      </c>
+      <c r="F125" t="n">
+        <v>70.53</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>26.01.2024</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A4 | Evil Daimyo (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>398.83</v>
+      </c>
+      <c r="E126" t="n">
+        <v>560.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>161.67</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>26.01.2024</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Five-SeveN | Hyper Beast (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1995.04</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2517.5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>522.46</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>26.01.2024</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>AK-47 | Blue Laminate (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>800</v>
+      </c>
+      <c r="E128" t="n">
+        <v>707.75</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-92.25</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>26.01.2024</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>StatTrak™ AWP | Exoskeleton (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>470.06</v>
+      </c>
+      <c r="E129" t="n">
+        <v>403.75</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-66.31</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>26.01.2024</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>StatTrak™ AWP | Exoskeleton (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>447.99</v>
+      </c>
+      <c r="E130" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-41.39</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>18.01.2024</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>26.01.2024</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>StatTrak™ SCAR-20 | Cardiac (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>777.59</v>
+      </c>
+      <c r="E131" t="n">
+        <v>712.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-65.09</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>19.01.2024</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>27.01.2024</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>PP-Bizon | Rust Coat (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>709.75</v>
+      </c>
+      <c r="E132" t="n">
+        <v>760</v>
+      </c>
+      <c r="F132" t="n">
+        <v>50.25</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>19.01.2024</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>28.01.2024</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>StatTrak™ AUG | Torque (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>700</v>
+      </c>
+      <c r="E133" t="n">
+        <v>722</v>
+      </c>
+      <c r="F133" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>21.01.2024</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>29.01.2024</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>AK-47 | Cartel (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>500</v>
+      </c>
+      <c r="E134" t="n">
+        <v>522.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>23.01.2024</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>31.01.2024</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A4 | Evil Daimyo (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>397.95</v>
+      </c>
+      <c r="E135" t="n">
+        <v>532</v>
+      </c>
+      <c r="F135" t="n">
+        <v>134.05</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>27.01.2024</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>07.02.2024</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A4 | The Battlestar (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1865.05</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1795.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-69.55</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>28.01.2024</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>05.02.2024</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Five-SeveN | Hyper Beast (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>1964</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2470</v>
+      </c>
+      <c r="F137" t="n">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>29.01.2024</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>06.02.2024</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>StatTrak™ P250 | Asiimov (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>600</v>
+      </c>
+      <c r="E138" t="n">
+        <v>665</v>
+      </c>
+      <c r="F138" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>30.01.2024</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>07.02.2024</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>M4A4 | Temukau (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>1225.81</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1306.25</v>
+      </c>
+      <c r="F139" t="n">
+        <v>80.44</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>30.01.2024</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>07.02.2024</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>M4A4 | 龍王 (Dragon King) (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>873.78</v>
+      </c>
+      <c r="E140" t="n">
+        <v>940.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>66.72</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>30.01.2024</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>07.02.2024</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A4 | Temukau (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>2540.06</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2724.6</v>
+      </c>
+      <c r="F141" t="n">
+        <v>184.54</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>30.01.2024</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>07.02.2024</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>AK-47 | Aquamarine Revenge (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>1157.9</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1225.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>30.01.2024</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>07.02.2024</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>M4A1-S | Basilisk (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>400</v>
+      </c>
+      <c r="E143" t="n">
+        <v>427.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>31.01.2024</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>08.02.2024</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>AK-47 | Nightwish (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>421.01</v>
+      </c>
+      <c r="E144" t="n">
+        <v>443.65</v>
+      </c>
+      <c r="F144" t="n">
+        <v>22.64</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>31.01.2024</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>09.02.2024</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>M4A4 | Desolate Space (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>583.33</v>
+      </c>
+      <c r="E145" t="n">
+        <v>693.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>110.17</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>09.02.2024</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>17.02.2024</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A1-S | Leaded Glass (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>974</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1073.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>10.02.2024</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>18.02.2024</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A4 | Cyber Security (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>1750</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F147" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>10.02.2024</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>18.02.2024</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>StatTrak™ AWP | Duality (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>1346</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1425</v>
+      </c>
+      <c r="F148" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>10.02.2024</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>18.02.2024</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>AWP | Neo-Noir (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>1368.43</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1852.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>484.07</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>11.02.2024</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>19.02.2024</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>StatTrak™ AWP | Chromatic Aberration (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>1526.41</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1533.3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>11.02.2024</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>20.02.2024</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Desert Eagle | Printstream (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>2300</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2660</v>
+      </c>
+      <c r="F151" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>11.02.2024</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>20.02.2024</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>StatTrak™ AWP | Chromatic Aberration (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>1550</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1533</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>11.02.2024</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>19.02.2024</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>StatTrak™ MP9 | Starlight Protector (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>513.41</v>
+      </c>
+      <c r="E153" t="n">
+        <v>589</v>
+      </c>
+      <c r="F153" t="n">
+        <v>75.59</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>11.02.2024</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>19.02.2024</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>USP-S | Monster Mashup (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>1099</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1301.5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>202.5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>20.02.2024</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>28.02.2024</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>AK-47 | Head Shot (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>2589.65</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2802.5</v>
+      </c>
+      <c r="F155" t="n">
+        <v>212.85</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>23.02.2024</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>02.03.2024</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>M4A4 | Temukau (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1518.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>218.1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>23.02.2024</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>05.03.2024</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>StatTrak™ AK-47 | Redline (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>2750</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2802.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>04.03.2024</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Desert Eagle | Printstream (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2536.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>136.5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>04.03.2024</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>P90 | Asiimov (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>467.92</v>
+      </c>
+      <c r="E159" t="n">
+        <v>767.6</v>
+      </c>
+      <c r="F159" t="n">
+        <v>299.68</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>04.03.2024</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>StatTrak™ AWP | PAW (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>475.83</v>
+      </c>
+      <c r="E160" t="n">
+        <v>485.45</v>
+      </c>
+      <c r="F160" t="n">
+        <v>9.619999999999999</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>26.02.2024</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>05.03.2024</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>1st Lieutenant Farlow | SWAT</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>480</v>
+      </c>
+      <c r="E161" t="n">
+        <v>437</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>06.03.2024</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>StatTrak™ Desert Eagle | Mecha Industries (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>874</v>
+      </c>
+      <c r="E162" t="n">
+        <v>853.1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-20.9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>06.03.2024</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>M4A1-S | Cyrex (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>1550</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1567.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>06.03.2024</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>StatTrak™ AK-47 | Head Shot (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>1842.17</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1966.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>124.33</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>01.03.2024</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>09.03.2024</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>USP-S | Monster Mashup (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1444</v>
+      </c>
+      <c r="F165" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>01.03.2024</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>09.03.2024</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>AK-47 | Cartel (Factory New)</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>1860</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F166" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>03.03.2024</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>11.03.2024</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>AK-47 | Green Laminate (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>1102.43</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1472.5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>370.07</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>05.03.2024</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>13.03.2024</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>AK-47 | Neon Revolution (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F168" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>06.03.2024</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>14.03.2024</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>M4A1-S | Black Lotus (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F169" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>06.03.2024</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>14.03.2024</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>MAC-10 | Neon Rider (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>669.76</v>
+      </c>
+      <c r="E170" t="n">
+        <v>513</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-156.76</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>06.03.2024</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>14.03.2024</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>M4A1-S | Moss Quartz (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>1994.59</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2042.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>47.91</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>07.03.2024</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>15.03.2024</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>M4A1-S | Mecha Industries (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1567.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>07.03.2024</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>15.03.2024</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>UMP-45 | Blaze (Factory New)</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>1588</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1520</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>07.03.2024</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>15.03.2024</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>USP-S | Jawbreaker (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>1064.76</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1073.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>08.03.2024</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>16.03.2024</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A4 | Temukau (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>2100</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>08.03.2024</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>16.03.2024</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>M4A1-S | Black Lotus (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>2390</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2775.9</v>
+      </c>
+      <c r="F176" t="n">
+        <v>385.9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>08.03.2024</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>16.03.2024</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>StatTrak™ Glock-18 | Snack Attack (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>650</v>
+      </c>
+      <c r="E177" t="n">
+        <v>717.25</v>
+      </c>
+      <c r="F177" t="n">
+        <v>67.25</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>08.03.2024</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>16.03.2024</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Desert Eagle | Night (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>895</v>
+      </c>
+      <c r="E178" t="n">
+        <v>778.05</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-116.95</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>10.03.2024</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>18.03.2024</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>USP-S | Royal Blue (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>1077</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F179" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>11.03.2024</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>20.03.2024</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Glock-18 | Reactor (Factory New)</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>880.8099999999999</v>
+      </c>
+      <c r="E180" t="n">
+        <v>950</v>
+      </c>
+      <c r="F180" t="n">
+        <v>69.19</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>12.03.2024</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>20.03.2024</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A4 | Buzz Kill (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1757.5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>12.03.2024</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>20.03.2024</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>StatTrak™ Desert Eagle | Conspiracy (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>1111</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1121</v>
+      </c>
+      <c r="F182" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>15.03.2024</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>23.03.2024</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>AK-47 | Point Disarray (Factory New)</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>2152.64</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2375</v>
+      </c>
+      <c r="F183" t="n">
+        <v>222.36</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>16.03.2024</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>24.03.2024</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A4 | Neo-Noir (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>1072.54</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1173.25</v>
+      </c>
+      <c r="F184" t="n">
+        <v>100.71</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>16.03.2024</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>24.03.2024</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>StatTrak™ AK-47 | Leet Museo (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>4379</v>
+      </c>
+      <c r="E185" t="n">
+        <v>5035</v>
+      </c>
+      <c r="F185" t="n">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>17.03.2024</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>25.03.2024</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A1-S | Leaded Glass (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>1040</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1130.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>17.03.2024</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>26.03.2024</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>USP-S | Ancient Visions (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>3833.85</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3781.95</v>
+      </c>
+      <c r="F187" t="n">
+        <v>-51.9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>17.03.2024</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>25.03.2024</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>StatTrak™ AK-47 | Nightwish (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>2144.25</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2042.5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-101.75</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>17.03.2024</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>25.03.2024</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>USP-S | Jawbreaker (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>2300</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2375</v>
+      </c>
+      <c r="F189" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>20.03.2024</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>29.03.2024</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Glock-18 | Water Elemental (Factory New)</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>999</v>
+      </c>
+      <c r="E190" t="n">
+        <v>950</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>21.03.2024</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>29.03.2024</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>P250 | Hive (Factory New)</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>611</v>
+      </c>
+      <c r="E191" t="n">
+        <v>465.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-145.5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>21.03.2024</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>29.03.2024</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>USP-S | Para Green (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>830.9299999999999</v>
+      </c>
+      <c r="E192" t="n">
+        <v>855</v>
+      </c>
+      <c r="F192" t="n">
+        <v>24.07</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>24.03.2024</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>01.04.2024</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>USP-S | Jawbreaker (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>1022.57</v>
+      </c>
+      <c r="E193" t="n">
+        <v>874</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-148.57</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>24.03.2024</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>01.04.2024</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>USP-S | Jawbreaker (Factory New)</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>3551.78</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3182.5</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-369.28</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>24.03.2024</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>01.04.2024</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Dual Berettas | Demolition (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>824.84</v>
+      </c>
+      <c r="E195" t="n">
+        <v>950</v>
+      </c>
+      <c r="F195" t="n">
+        <v>125.16</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>24.03.2024</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>04.04.2024</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>SCAR-20 | Bloodsport (Factory New)</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>619.1</v>
+      </c>
+      <c r="E196" t="n">
+        <v>712.5</v>
+      </c>
+      <c r="F196" t="n">
+        <v>93.40000000000001</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>24.03.2024</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>04.04.2024</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>StatTrak™ Nova | Hyper Beast (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>1973.73</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2185</v>
+      </c>
+      <c r="F197" t="n">
+        <v>211.27</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>24.03.2024</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>01.04.2024</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Glock-18 | Neo-Noir (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>600</v>
+      </c>
+      <c r="E198" t="n">
+        <v>570</v>
+      </c>
+      <c r="F198" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>25.03.2024</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>05.04.2024</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>StatTrak™ MP7 | Nemesis (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>785.8099999999999</v>
+      </c>
+      <c r="E199" t="n">
+        <v>855</v>
+      </c>
+      <c r="F199" t="n">
+        <v>69.19</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>26.03.2024</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>05.04.2024</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>AK-47 | Ice Coaled (Factory New)</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1805</v>
+      </c>
+      <c r="F200" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>26.03.2024</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>07.04.2024</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>StatTrak™ USP-S | The Traitor (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2375</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>26.03.2024</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>06.04.2024</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>M4A4 | Hellfire (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E202" t="n">
+        <v>3372.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>26.03.2024</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>06.04.2024</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>M4A4 | Temukau (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1377.5</v>
+      </c>
+      <c r="F203" t="n">
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>27.03.2024</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>06.04.2024</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>AK-47 | Head Shot (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>611</v>
+      </c>
+      <c r="E204" t="n">
+        <v>613.7</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>27.03.2024</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>06.04.2024</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>M4A1-S | Control Panel (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>579</v>
+      </c>
+      <c r="E205" t="n">
+        <v>532</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>27.03.2024</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>06.04.2024</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>StatTrak™ P250 | Cartel (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>1017.11</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F206" t="n">
+        <v>122.89</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>27.03.2024</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>06.04.2024</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>StatTrak™ M4A4 | In Living Color (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>894.74</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1026</v>
+      </c>
+      <c r="F207" t="n">
+        <v>131.26</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>31.03.2024</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>09.04.2024</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>AWP | Elite Build (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>1749.53</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1805</v>
+      </c>
+      <c r="F208" t="n">
+        <v>55.47</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>04.04.2024</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>12.04.2024</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>M4A4 | Desolate Space (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>405</v>
+      </c>
+      <c r="E209" t="n">
+        <v>456</v>
+      </c>
+      <c r="F209" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>05.04.2024</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>13.04.2024</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>AWP | Wildfire (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>4755.89</v>
+      </c>
+      <c r="E210" t="n">
+        <v>4940</v>
+      </c>
+      <c r="F210" t="n">
+        <v>184.11</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Итог: 9405.33</t>
         </is>
       </c>
     </row>
